--- a/resources/experiment 2/metrics/R2/upto time/Ceguera (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Ceguera (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6.376377285340938</v>
+        <v>-6.376377285340954</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.376377285340941</v>
+        <v>-6.376377285340955</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.376377285340941</v>
+        <v>-6.376377285340955</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9343776879245431</v>
+        <v>0.845049961883345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9343788371022876</v>
+        <v>0.9351927071930313</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9343788371022876</v>
+        <v>0.6502301898721462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.855647526857952</v>
+        <v>0.9373413926863283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8556504194622846</v>
+        <v>0.9108926000615768</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8556504194622846</v>
+        <v>0.7936880044057121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7722348422697162</v>
+        <v>0.8161247051948194</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7722348422697162</v>
+        <v>0.396937205572043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7722348422697162</v>
+        <v>-3.498763047294248</v>
       </c>
     </row>
   </sheetData>
